--- a/dtpu_configurations/only_integer32/50mhz/mxu_8x8/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_8x8/utilization.xlsx
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>20.005638122558594</v>
+        <v>39.351505279541016</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.712643623352051</v>
+        <v>6.816092014312744</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.816729545593262</v>
+        <v>24.237781524658203</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>25.454544067382812</v>
+        <v>79.09091186523438</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
